--- a/ServerHealthReport/___ServerList.xlsx
+++ b/ServerHealthReport/___ServerList.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_VSProjects\Ezdan.IT\ServerHealthReport\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_VSProjects\ServerHealthReport\ServerHealthReport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{773BE6F3-0B8A-425C-A833-A01766FF7E82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1F334B5-014D-455B-9DE1-836AFD68CB22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6128ECFD-204D-412B-B8C1-B580E9FE4B6E}"/>
   </bookViews>
@@ -34,15 +34,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>ehd-tst-itaps</t>
-  </si>
-  <si>
-    <t>ehd-tst-shpt</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>ServerName</t>
+  </si>
+  <si>
+    <t>EH-DC-01</t>
+  </si>
+  <si>
+    <t>EHD-PDC-DC3</t>
+  </si>
+  <si>
+    <t>EHD-PR-ADCO1</t>
+  </si>
+  <si>
+    <t>EHD-PR-ADFS</t>
+  </si>
+  <si>
+    <t>EHD-PR-AOS3</t>
+  </si>
+  <si>
+    <t>EHD-PR-AOSB1</t>
+  </si>
+  <si>
+    <t>EHD-PR-AOSLB</t>
+  </si>
+  <si>
+    <t>EHD-PR-CCTV1</t>
+  </si>
+  <si>
+    <t>EHD-PR-D365FS</t>
+  </si>
+  <si>
+    <t>EHD-PR-DAOS1</t>
+  </si>
+  <si>
+    <t>EHD-PR-DAOS2</t>
+  </si>
+  <si>
+    <t>EHD-PR-DAOS3</t>
+  </si>
+  <si>
+    <t>EHD-PR-DAOS4</t>
+  </si>
+  <si>
+    <t>EHD-PR-DGW1</t>
+  </si>
+  <si>
+    <t>EHD-PR-DMR1</t>
+  </si>
+  <si>
+    <t>EHD-PR-DMZ2</t>
+  </si>
+  <si>
+    <t>EHD-PR-DRS1</t>
+  </si>
+  <si>
+    <t>EHD-PR-DRS2</t>
+  </si>
+  <si>
+    <t>EHD-PR-DSQL1</t>
+  </si>
+  <si>
+    <t>EHD-PR-DSQL2</t>
   </si>
 </sst>
 </file>
@@ -403,9 +457,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4E81D09-1D0A-4898-A4C9-D62BE192E7A4}">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -414,17 +470,107 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
